--- a/biology/Zoologie/Chrysomela_ceresti/Chrysomela_ceresti.xlsx
+++ b/biology/Zoologie/Chrysomela_ceresti/Chrysomela_ceresti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysomela ceresti est une espèce fossile de coléoptères du genre Chrysomela, de la famille des Chrysomelidae.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Chrysomela ceresti a été décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[1],[2]. 
-Fossile
-Cet holotype F73 ainsi que les échantillons spécimens F68, 104, 105,103, 76,108, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) font partie de la collection Fliche, enseignant la botanique à l'École nationale des eaux et forêts de Nancy[1] et viennent du gisement éocène de Céreste[1], dans les Alpes-de-Haute-Provence, dans la réserve naturelle géologique du Luberon, gérée par le parc naturel régional du Luberon. Les échantillons se trouvent dans les calcaires en plaquettes "supérieurs" du bassin d'Apt-Forcalquier.
-Étymologie
-L'épithète spécifique ceresti signifie en latin « de Céreste », rappelant le lieu de découverte du fossile.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Chrysomela ceresti a été décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981),. 
 </t>
         </is>
       </c>
@@ -543,19 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Cet insecte a un corps ovale de coloration brune. Tête manque ; thorax montrant les insertions des pattes ; abdomen avec cinq segments abdominaux diminuant de longueur vers l'arrière. Élytres fortement bombés ; bord antérieur légèrement convexe, épaules arrondies, bord marginal à peine courbé jusqu'au tiers postérieur, à partir duquel il s'arrondit rapidement vers l'extrémité ; surface ornée de neuf lignes ponctuées et d'une striole scutellaire, ponctuations devenant indistinctes vers le sommet. »[1].
-Dimensions
-La longueur de l'élytre est de 2,9 mm et la longueur de l'abdomen de 2 mm[1].
-Affinités
-« D'autres échantillons de la même collection et de même origine appartiennent à cette espèce (F104, 105, 103 + 76, 108). F104 montre la face ventrale de l'Insecte et un élytre ; tête fortement engagée dans le corselet ; bords latéraux du corselet convexes, son bord postérieur légèrement sinueux. F103 + 76 et 108 ont des élytres de taille supérieure qui peuvent atteindre 3,5 mm ; épipleure portant une frange de cils.
-Parmi les nombreuses espèces de Chrysomela il n'est pas possible de déterminer la forme actuelle la plus voisine. »[1].
+          <t>Fossile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet holotype F73 ainsi que les échantillons spécimens F68, 104, 105,103, 76,108, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) font partie de la collection Fliche, enseignant la botanique à l'École nationale des eaux et forêts de Nancy et viennent du gisement éocène de Céreste, dans les Alpes-de-Haute-Provence, dans la réserve naturelle géologique du Luberon, gérée par le parc naturel régional du Luberon. Les échantillons se trouvent dans les calcaires en plaquettes "supérieurs" du bassin d'Apt-Forcalquier.
 </t>
         </is>
       </c>
@@ -581,13 +590,167 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique ceresti signifie en latin « de Céreste », rappelant le lieu de découverte du fossile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chrysomela_ceresti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysomela_ceresti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Cet insecte a un corps ovale de coloration brune. Tête manque ; thorax montrant les insertions des pattes ; abdomen avec cinq segments abdominaux diminuant de longueur vers l'arrière. Élytres fortement bombés ; bord antérieur légèrement convexe, épaules arrondies, bord marginal à peine courbé jusqu'au tiers postérieur, à partir duquel il s'arrondit rapidement vers l'extrémité ; surface ornée de neuf lignes ponctuées et d'une striole scutellaire, ponctuations devenant indistinctes vers le sommet. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chrysomela_ceresti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysomela_ceresti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur de l'élytre est de 2,9 mm et la longueur de l'abdomen de 2 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chrysomela_ceresti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysomela_ceresti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« D'autres échantillons de la même collection et de même origine appartiennent à cette espèce (F104, 105, 103 + 76, 108). F104 montre la face ventrale de l'Insecte et un élytre ; tête fortement engagée dans le corselet ; bords latéraux du corselet convexes, son bord postérieur légèrement sinueux. F103 + 76 et 108 ont des élytres de taille supérieure qui peuvent atteindre 3,5 mm ; épipleure portant une frange de cils.
+Parmi les nombreuses espèces de Chrysomela il n'est pas possible de déterminer la forme actuelle la plus voisine. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chrysomela_ceresti</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysomela_ceresti</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les Chrysomèles sont des insectes phytophages vivant sur les feuilles des arbrisseaux et des herbes. Genre cosmopolite. »[1].
+« Les Chrysomèles sont des insectes phytophages vivant sur les feuilles des arbrisseaux et des herbes. Genre cosmopolite. ».
 </t>
         </is>
       </c>
